--- a/data/monster.xlsx
+++ b/data/monster.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="143">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -58,6 +59,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣盾</t>
     </r>
@@ -77,6 +79,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亡语</t>
     </r>
@@ -100,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嘲讽</t>
     </r>
@@ -119,6 +123,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣盾</t>
     </r>
@@ -160,6 +165,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嘲讽</t>
     </r>
@@ -179,6 +185,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">战吼</t>
     </r>
@@ -229,6 +236,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嘲讽</t>
     </r>
@@ -248,6 +256,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亡语</t>
     </r>
@@ -334,6 +343,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁力</t>
     </r>
@@ -353,6 +363,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亡语</t>
     </r>
@@ -385,6 +396,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">复生</t>
     </r>
@@ -404,6 +416,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣盾</t>
     </r>
@@ -454,6 +467,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嘲讽</t>
     </r>
@@ -473,6 +487,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">磁力</t>
     </r>
@@ -492,6 +507,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣盾</t>
     </r>
@@ -530,6 +546,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">剧毒</t>
     </r>
@@ -549,6 +566,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">战吼</t>
     </r>
@@ -608,6 +626,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">发现</t>
     </r>
@@ -627,6 +646,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">战吼</t>
     </r>
@@ -638,6 +658,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">布莱恩</t>
     </r>
@@ -657,6 +678,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">铜须</t>
     </r>
@@ -677,6 +699,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亡语</t>
     </r>
@@ -696,6 +719,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">战吼</t>
     </r>
@@ -713,6 +737,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">“钓鱼王”纳特</t>
     </r>
@@ -732,6 +757,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">帕格</t>
     </r>
@@ -749,6 +775,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">超杀</t>
     </r>
@@ -768,6 +795,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">风怒</t>
     </r>
@@ -779,6 +807,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">死神</t>
     </r>
@@ -798,6 +827,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">型</t>
     </r>
@@ -815,6 +845,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">扎普</t>
     </r>
@@ -834,6 +865,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">斯里维克</t>
     </r>
@@ -860,6 +892,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进化</t>
     </r>
@@ -879,6 +912,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">战吼</t>
     </r>
@@ -897,6 +931,9 @@
   </si>
   <si>
     <t xml:space="preserve">海浪剃刀号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雌斑虎</t>
   </si>
 </sst>
 </file>
@@ -912,6 +949,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1004,10 +1042,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3198,6 +3236,8 @@
         <v>20</v>
       </c>
     </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3207,4 +3247,72 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>